--- a/biology/Botanique/Calebasse_Van_Marum/Calebasse_Van_Marum.xlsx
+++ b/biology/Botanique/Calebasse_Van_Marum/Calebasse_Van_Marum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Calebasse Van Marum est une variété de poire. 
 </t>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Van Mons est l'obtenteur à Louvain, en 1820, de cet énorme fruit. Il lui donna le nom du chimiste hollandais Martin Van Marum (1750-1837)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Van Mons est l'obtenteur à Louvain, en 1820, de cet énorme fruit. Il lui donna le nom du chimiste hollandais Martin Van Marum (1750-1837).
 </t>
         </is>
       </c>
@@ -542,15 +556,17 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Van Marum[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Van Marum.
 Double Calebasse Extra
 Calebasse Monstrueuse du Nord
 Calebasse Royale
 Monstrueuse de Flandres.
 Carafon.
-Bouteille[1]...</t>
+Bouteille...</t>
         </is>
       </c>
     </row>
@@ -580,11 +596,51 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arbre
-Cette variété se conduit en pyramide ou en espalier, de préférence au plein vent en haute tige car la grosseur des fruits conduit à leur chute[2].
-Fruit
-C'est une calebasse assez inconstante, ventrue et bien bosselée, quelquefois pentagone, de grosseur parfois considérable (800 g.)[2].
-Souvent granuleuse au centre du fruit, la chair est blanche, mi-fine avec une eau abondante, sucrée, quelque peu musquée[1].
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette variété se conduit en pyramide ou en espalier, de préférence au plein vent en haute tige car la grosseur des fruits conduit à leur chute.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Calebasse_Van_Marum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calebasse_Van_Marum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une calebasse assez inconstante, ventrue et bien bosselée, quelquefois pentagone, de grosseur parfois considérable (800 g.).
+Souvent granuleuse au centre du fruit, la chair est blanche, mi-fine avec une eau abondante, sucrée, quelque peu musquée.
 </t>
         </is>
       </c>
